--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB1BA6A-E8B3-495E-9F73-B41417CDD3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C118DC-7490-4FEB-9117-CA113BA58C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
